--- a/Documents/Water Breakdown.xlsx
+++ b/Documents/Water Breakdown.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Semester 3/Strategy and Performance Management/SPM Project Harvard/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Semester 3/Strategy and Performance Management/SPM Project Harvard/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76AEC781-266E-42AD-B3F8-1AFCA073C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{76AEC781-266E-42AD-B3F8-1AFCA073C570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9132A573-AD98-4C09-AFC1-9CEA2DC16972}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{CC96EB67-7E02-4F0B-9939-F871C85E3A13}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
   <si>
     <t>Municipal</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Westrn Europe</t>
-  </si>
-  <si>
     <t>Central and Eastern Europe</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Western Europe</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +71,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -106,25 +106,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,16 +146,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>179434</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>156574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -175,7 +178,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="4572000"/>
+          <a:off x="8442960" y="5212080"/>
           <a:ext cx="6126480" cy="4385674"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -195,7 +198,7 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>404581</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>30693</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -532,7 +535,7 @@
   <dimension ref="B5:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="H15" sqref="H15:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,25 +568,25 @@
         <v>3</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
@@ -684,7 +687,7 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
@@ -723,7 +726,7 @@
         <v>312386</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:F11" si="2">SUM(D7:D10)</f>
+        <f t="shared" ref="D11" si="2">SUM(D7:D10)</f>
         <v>235317</v>
       </c>
       <c r="E11" s="2">
@@ -762,15 +765,242 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="27" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="5">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="2:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f>C7</f>
+        <v>97314</v>
+      </c>
+      <c r="D15" s="6">
+        <f>D7/$C7</f>
+        <v>0.8778901288612122</v>
+      </c>
+      <c r="E15" s="6">
+        <f>E7/$C7</f>
+        <v>5.7792301210514416E-2</v>
+      </c>
+      <c r="F15" s="6">
+        <f>F7/$C7</f>
+        <v>6.4317569928273421E-2</v>
+      </c>
+      <c r="G15" s="2">
+        <f>G7</f>
+        <v>90082</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" ref="H15:I15" si="8">H7/$G7</f>
+        <v>0.85734108922981289</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="8"/>
+        <v>6.9148109500233118E-2</v>
+      </c>
+      <c r="J15" s="6">
+        <f>J7/$G7</f>
+        <v>7.3510801269954046E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:C18" si="9">C8</f>
+        <v>204696</v>
+      </c>
+      <c r="D16" s="6">
+        <f>D8/$C8</f>
+        <v>0.73223707351389378</v>
+      </c>
+      <c r="E16" s="6">
+        <f>E8/$C8</f>
+        <v>0.10268886543948098</v>
+      </c>
+      <c r="F16" s="6">
+        <f>F8/$C8</f>
+        <v>0.16507406104662523</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" ref="G16:G19" si="10">G8</f>
+        <v>207371</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" ref="H16:J18" si="11">H8/$G8</f>
+        <v>0.72194762044837513</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="11"/>
+        <v>0.11083999209146891</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="11"/>
+        <v>0.16721238746015596</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="9"/>
+        <v>9707</v>
+      </c>
+      <c r="D17" s="6">
+        <f>D9/$C9</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <f>E9/$C9</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="6">
+        <f>F9/$C9</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="10"/>
+        <v>9854</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="9"/>
+        <v>669</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D10/$C10</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <f>E10/$C10</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="6">
+        <f>F10/$C10</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="10"/>
+        <v>317</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <f>SUM(C15:C18)</f>
+        <v>312386</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:I19" si="12">SUM(D15:D18)</f>
+        <v>1.6101272023751059</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="12"/>
+        <v>0.1604811666499954</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="12"/>
+        <v>2.2293916309748987</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="10"/>
+        <v>307624</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="12"/>
+        <v>1.579288709678188</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="12"/>
+        <v>0.17998810159170203</v>
+      </c>
+      <c r="J19" s="2">
+        <f>SUM(J15:J18)</f>
+        <v>2.2407231887301098</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="J27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:J13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
